--- a/GameData/StatTable.xlsx
+++ b/GameData/StatTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnrealProjects\MyRPGProject\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnrealProjects\MyRPGGameProject\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEF5A9-74B8-47BC-9898-116354F0D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C84B48-2E07-4C52-A1CE-4A3D0B05F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -66,20 +66,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
     <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>Exp</t>
   </si>
   <si>
     <t>Mana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -432,16 +431,19 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -458,19 +460,22 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -487,19 +492,22 @@
         <v>40</v>
       </c>
       <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,19 +524,22 @@
         <v>50</v>
       </c>
       <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>150</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -545,19 +556,22 @@
         <v>60</v>
       </c>
       <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
         <v>250</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>110</v>
       </c>
-      <c r="I6">
-        <v>17</v>
+      <c r="J6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -574,16 +588,19 @@
         <v>80</v>
       </c>
       <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
         <v>300</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>350</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="I7">
-        <v>20</v>
+      <c r="J7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/StatTable.xlsx
+++ b/GameData/StatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnrealProjects\MyRPGProject\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEF5A9-74B8-47BC-9898-116354F0D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A669C-F118-4B4C-A25E-4C24519CF29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,61 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackQ</t>
+  </si>
+  <si>
+    <t>AttackE</t>
+  </si>
+  <si>
+    <t>AttackR</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
     <t>LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,139 +394,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
       <c r="F3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>150</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -545,27 +547,30 @@
         <v>60</v>
       </c>
       <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
         <v>250</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>110</v>
       </c>
-      <c r="I6">
-        <v>17</v>
+      <c r="J6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -574,16 +579,19 @@
         <v>80</v>
       </c>
       <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
         <v>300</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>350</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="I7">
-        <v>20</v>
+      <c r="J7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/StatTable.xlsx
+++ b/GameData/StatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnrealProjects\MyRPGGameProject\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C84B48-2E07-4C52-A1CE-4A3D0B05F6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D539674-E0E8-4912-9EEA-5F342F45362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2490" windowWidth="13095" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,55 +30,46 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackQ</t>
+  </si>
+  <si>
+    <t>AttackE</t>
+  </si>
+  <si>
+    <t>AttackR</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
     <t>LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LV5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>MaxMana</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Mana</t>
   </si>
 </sst>
 </file>
@@ -406,7 +397,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -416,48 +407,48 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -477,25 +468,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>45</v>
       </c>
       <c r="G4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -509,16 +500,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -541,13 +532,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -573,13 +564,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>60</v>
